--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.01171305715988</v>
+        <v>1.255781</v>
       </c>
       <c r="H2">
-        <v>1.01171305715988</v>
+        <v>3.767343</v>
       </c>
       <c r="I2">
-        <v>0.01327658897614459</v>
+        <v>0.01633546530699055</v>
       </c>
       <c r="J2">
-        <v>0.01327658897614459</v>
+        <v>0.01633546530699055</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N2">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O2">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P2">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q2">
-        <v>8.964095897591296</v>
+        <v>11.87989211511567</v>
       </c>
       <c r="R2">
-        <v>8.964095897591296</v>
+        <v>106.919029036041</v>
       </c>
       <c r="S2">
-        <v>0.001104784901742324</v>
+        <v>0.001339022161974888</v>
       </c>
       <c r="T2">
-        <v>0.001104784901742324</v>
+        <v>0.001339022161974888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.01171305715988</v>
+        <v>1.255781</v>
       </c>
       <c r="H3">
-        <v>1.01171305715988</v>
+        <v>3.767343</v>
       </c>
       <c r="I3">
-        <v>0.01327658897614459</v>
+        <v>0.01633546530699055</v>
       </c>
       <c r="J3">
-        <v>0.01327658897614459</v>
+        <v>0.01633546530699055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N3">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O3">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P3">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q3">
-        <v>46.63760413981964</v>
+        <v>57.99518933263967</v>
       </c>
       <c r="R3">
-        <v>46.63760413981964</v>
+        <v>521.9567039937571</v>
       </c>
       <c r="S3">
-        <v>0.005747877030292922</v>
+        <v>0.006536830726394018</v>
       </c>
       <c r="T3">
-        <v>0.005747877030292922</v>
+        <v>0.006536830726394018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.01171305715988</v>
+        <v>1.255781</v>
       </c>
       <c r="H4">
-        <v>1.01171305715988</v>
+        <v>3.767343</v>
       </c>
       <c r="I4">
-        <v>0.01327658897614459</v>
+        <v>0.01633546530699055</v>
       </c>
       <c r="J4">
-        <v>0.01327658897614459</v>
+        <v>0.01633546530699055</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N4">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O4">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P4">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q4">
-        <v>46.19094562486944</v>
+        <v>64.54924013567633</v>
       </c>
       <c r="R4">
-        <v>46.19094562486944</v>
+        <v>580.9431612210871</v>
       </c>
       <c r="S4">
-        <v>0.005692828357321426</v>
+        <v>0.00727555959623022</v>
       </c>
       <c r="T4">
-        <v>0.005692828357321426</v>
+        <v>0.007275559596230221</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.01171305715988</v>
+        <v>1.255781</v>
       </c>
       <c r="H5">
-        <v>1.01171305715988</v>
+        <v>3.767343</v>
       </c>
       <c r="I5">
-        <v>0.01327658897614459</v>
+        <v>0.01633546530699055</v>
       </c>
       <c r="J5">
-        <v>0.01327658897614459</v>
+        <v>0.01633546530699055</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N5">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O5">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P5">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q5">
-        <v>5.9320495135609</v>
+        <v>10.50499400836067</v>
       </c>
       <c r="R5">
-        <v>5.9320495135609</v>
+        <v>94.54494607524602</v>
       </c>
       <c r="S5">
-        <v>0.0007310986867879198</v>
+        <v>0.001184052822391425</v>
       </c>
       <c r="T5">
-        <v>0.0007310986867879198</v>
+        <v>0.001184052822391425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.1377214081819</v>
+        <v>64.17341733333332</v>
       </c>
       <c r="H6">
-        <v>64.1377214081819</v>
+        <v>192.520252</v>
       </c>
       <c r="I6">
-        <v>0.8416716172403162</v>
+        <v>0.8347814089237634</v>
       </c>
       <c r="J6">
-        <v>0.8416716172403162</v>
+        <v>0.8347814089237634</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N6">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O6">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P6">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q6">
-        <v>568.2803847267933</v>
+        <v>607.0909454580802</v>
       </c>
       <c r="R6">
-        <v>568.2803847267933</v>
+        <v>5463.818509122723</v>
       </c>
       <c r="S6">
-        <v>0.07003802683226325</v>
+        <v>0.068427240115113</v>
       </c>
       <c r="T6">
-        <v>0.07003802683226325</v>
+        <v>0.068427240115113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.1377214081819</v>
+        <v>64.17341733333332</v>
       </c>
       <c r="H7">
-        <v>64.1377214081819</v>
+        <v>192.520252</v>
       </c>
       <c r="I7">
-        <v>0.8416716172403162</v>
+        <v>0.8347814089237634</v>
       </c>
       <c r="J7">
-        <v>0.8416716172403162</v>
+        <v>0.8347814089237634</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N7">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O7">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P7">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q7">
-        <v>2956.598850134364</v>
+        <v>2963.693102833349</v>
       </c>
       <c r="R7">
-        <v>2956.598850134364</v>
+        <v>26673.23792550014</v>
       </c>
       <c r="S7">
-        <v>0.3643876423739356</v>
+        <v>0.3340477091485217</v>
       </c>
       <c r="T7">
-        <v>0.3643876423739356</v>
+        <v>0.3340477091485217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.1377214081819</v>
+        <v>64.17341733333332</v>
       </c>
       <c r="H8">
-        <v>64.1377214081819</v>
+        <v>192.520252</v>
       </c>
       <c r="I8">
-        <v>0.8416716172403162</v>
+        <v>0.8347814089237634</v>
       </c>
       <c r="J8">
-        <v>0.8416716172403162</v>
+        <v>0.8347814089237634</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N8">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O8">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P8">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q8">
-        <v>2928.282857577256</v>
+        <v>3298.62079914914</v>
       </c>
       <c r="R8">
-        <v>2928.282857577256</v>
+        <v>29687.58719234226</v>
       </c>
       <c r="S8">
-        <v>0.3608978223840192</v>
+        <v>0.3717985240280112</v>
       </c>
       <c r="T8">
-        <v>0.3608978223840192</v>
+        <v>0.3717985240280113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.1377214081819</v>
+        <v>64.17341733333332</v>
       </c>
       <c r="H9">
-        <v>64.1377214081819</v>
+        <v>192.520252</v>
       </c>
       <c r="I9">
-        <v>0.8416716172403162</v>
+        <v>0.8347814089237634</v>
       </c>
       <c r="J9">
-        <v>0.8416716172403162</v>
+        <v>0.8347814089237634</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N9">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O9">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P9">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q9">
-        <v>376.0632882888502</v>
+        <v>536.8303586235937</v>
       </c>
       <c r="R9">
-        <v>376.0632882888502</v>
+        <v>4831.473227612343</v>
       </c>
       <c r="S9">
-        <v>0.04634812565009833</v>
+        <v>0.06050793563211748</v>
       </c>
       <c r="T9">
-        <v>0.04634812565009833</v>
+        <v>0.06050793563211749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.85926289718358</v>
+        <v>2.135113</v>
       </c>
       <c r="H10">
-        <v>1.85926289718358</v>
+        <v>6.405339000000001</v>
       </c>
       <c r="I10">
-        <v>0.02439888376433327</v>
+        <v>0.02777400226472969</v>
       </c>
       <c r="J10">
-        <v>0.02439888376433327</v>
+        <v>0.02777400226472969</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N10">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O10">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P10">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q10">
-        <v>16.47365405757853</v>
+        <v>20.19851558001033</v>
       </c>
       <c r="R10">
-        <v>16.47365405757853</v>
+        <v>181.786640220093</v>
       </c>
       <c r="S10">
-        <v>0.002030304504465345</v>
+        <v>0.002276641886858209</v>
       </c>
       <c r="T10">
-        <v>0.002030304504465345</v>
+        <v>0.002276641886858209</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.85926289718358</v>
+        <v>2.135113</v>
       </c>
       <c r="H11">
-        <v>1.85926289718358</v>
+        <v>6.405339000000001</v>
       </c>
       <c r="I11">
-        <v>0.02439888376433327</v>
+        <v>0.02777400226472969</v>
       </c>
       <c r="J11">
-        <v>0.02439888376433327</v>
+        <v>0.02777400226472969</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N11">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O11">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P11">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q11">
-        <v>85.70766817433598</v>
+        <v>98.60499775166234</v>
       </c>
       <c r="R11">
-        <v>85.70766817433598</v>
+        <v>887.4449797649611</v>
       </c>
       <c r="S11">
-        <v>0.01056308844129956</v>
+        <v>0.01111409733283376</v>
       </c>
       <c r="T11">
-        <v>0.01056308844129956</v>
+        <v>0.01111409733283376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.85926289718358</v>
+        <v>2.135113</v>
       </c>
       <c r="H12">
-        <v>1.85926289718358</v>
+        <v>6.405339000000001</v>
       </c>
       <c r="I12">
-        <v>0.02439888376433327</v>
+        <v>0.02777400226472969</v>
       </c>
       <c r="J12">
-        <v>0.02439888376433327</v>
+        <v>0.02777400226472969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N12">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O12">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P12">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q12">
-        <v>84.88682712787433</v>
+        <v>109.7483731270057</v>
       </c>
       <c r="R12">
-        <v>84.88682712787433</v>
+        <v>987.735358143051</v>
       </c>
       <c r="S12">
-        <v>0.01046192343757566</v>
+        <v>0.0123701042428464</v>
       </c>
       <c r="T12">
-        <v>0.01046192343757566</v>
+        <v>0.0123701042428464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.85926289718358</v>
+        <v>2.135113</v>
       </c>
       <c r="H13">
-        <v>1.85926289718358</v>
+        <v>6.405339000000001</v>
       </c>
       <c r="I13">
-        <v>0.02439888376433327</v>
+        <v>0.02777400226472969</v>
       </c>
       <c r="J13">
-        <v>0.02439888376433327</v>
+        <v>0.02777400226472969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N13">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O13">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P13">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q13">
-        <v>10.90154909711395</v>
+        <v>17.86087643639533</v>
       </c>
       <c r="R13">
-        <v>10.90154909711395</v>
+        <v>160.747887927558</v>
       </c>
       <c r="S13">
-        <v>0.001343567380992701</v>
+        <v>0.002013158802191324</v>
       </c>
       <c r="T13">
-        <v>0.001343567380992701</v>
+        <v>0.002013158802191324</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.194087778878689</v>
+        <v>9.310205333333334</v>
       </c>
       <c r="H14">
-        <v>9.194087778878689</v>
+        <v>27.930616</v>
       </c>
       <c r="I14">
-        <v>0.1206529100192057</v>
+        <v>0.1211091235045164</v>
       </c>
       <c r="J14">
-        <v>0.1206529100192057</v>
+        <v>0.1211091235045164</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N14">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O14">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P14">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q14">
-        <v>81.46250951045747</v>
+        <v>88.07605380999911</v>
       </c>
       <c r="R14">
-        <v>81.46250951045747</v>
+        <v>792.6844842899919</v>
       </c>
       <c r="S14">
-        <v>0.0100398915399128</v>
+        <v>0.009927345033783862</v>
       </c>
       <c r="T14">
-        <v>0.0100398915399128</v>
+        <v>0.00992734503378386</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.194087778878689</v>
+        <v>9.310205333333334</v>
       </c>
       <c r="H15">
-        <v>9.194087778878689</v>
+        <v>27.930616</v>
       </c>
       <c r="I15">
-        <v>0.1206529100192057</v>
+        <v>0.1211091235045164</v>
       </c>
       <c r="J15">
-        <v>0.1206529100192057</v>
+        <v>0.1211091235045164</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N15">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O15">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P15">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q15">
-        <v>423.8259289267398</v>
+        <v>429.9691753836205</v>
       </c>
       <c r="R15">
-        <v>423.8259289267398</v>
+        <v>3869.722578452584</v>
       </c>
       <c r="S15">
-        <v>0.052234658418926</v>
+        <v>0.048463256166458</v>
       </c>
       <c r="T15">
-        <v>0.052234658418926</v>
+        <v>0.048463256166458</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.194087778878689</v>
+        <v>9.310205333333334</v>
       </c>
       <c r="H16">
-        <v>9.194087778878689</v>
+        <v>27.930616</v>
       </c>
       <c r="I16">
-        <v>0.1206529100192057</v>
+        <v>0.1211091235045164</v>
       </c>
       <c r="J16">
-        <v>0.1206529100192057</v>
+        <v>0.1211091235045164</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N16">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O16">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P16">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q16">
-        <v>419.7668554922583</v>
+        <v>478.5600990728382</v>
       </c>
       <c r="R16">
-        <v>419.7668554922583</v>
+        <v>4307.040891655543</v>
       </c>
       <c r="S16">
-        <v>0.05173439569341415</v>
+        <v>0.05394010082634401</v>
       </c>
       <c r="T16">
-        <v>0.05173439569341415</v>
+        <v>0.05394010082634401</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.194087778878689</v>
+        <v>9.310205333333334</v>
       </c>
       <c r="H17">
-        <v>9.194087778878689</v>
+        <v>27.930616</v>
       </c>
       <c r="I17">
-        <v>0.1206529100192057</v>
+        <v>0.1211091235045164</v>
       </c>
       <c r="J17">
-        <v>0.1206529100192057</v>
+        <v>0.1211091235045164</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N17">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O17">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P17">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q17">
-        <v>53.90835232416563</v>
+        <v>77.88272894977246</v>
       </c>
       <c r="R17">
-        <v>53.90835232416563</v>
+        <v>700.9445605479521</v>
       </c>
       <c r="S17">
-        <v>0.006643964366952748</v>
+        <v>0.008778421477930494</v>
       </c>
       <c r="T17">
-        <v>0.006643964366952748</v>
+        <v>0.008778421477930494</v>
       </c>
     </row>
   </sheetData>
